--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572A1716-ABA4-3844-8ABA-B9BEAF8AAEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8087750-AA00-F84F-8847-C72EB0C7698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Parameter</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Gaussian kinetic energy</t>
+  </si>
+  <si>
+    <t>Vacuum chamber</t>
+  </si>
+  <si>
+    <t>Mother volume radius</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -398,6 +404,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -714,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +736,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
@@ -781,77 +791,75 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -868,7 +876,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>3.9999999999999998E-6</v>
@@ -877,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -894,117 +902,119 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>0.99969115500000005</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6.0339999999999998E-2</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1015,22 +1025,20 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0339999999999998E-2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1047,40 +1055,42 @@
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1091,44 +1101,44 @@
         <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.04</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>332</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,46 +1149,46 @@
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>332</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2.5770000000000001E-2</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1189,118 +1199,118 @@
         <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7">
         <v>0.02</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>318.5</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>1.7285900000000001</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1311,45 +1321,69 @@
         <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>1</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="5">
         <v>0.02</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>50</v>
       </c>
     </row>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8087750-AA00-F84F-8847-C72EB0C7698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79045516-B576-2942-893C-A51977FF599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>Parameter</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Strength of focusing quad</t>
   </si>
   <si>
-    <t>Check value</t>
-  </si>
-  <si>
     <t>Dquad</t>
   </si>
   <si>
@@ -225,6 +222,66 @@
   </si>
   <si>
     <t>Mother volume radius</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Laser power</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Laser energy</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>Laser wavelength</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Laser pulse duration</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Target thickness</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>W/cm2</t>
+  </si>
+  <si>
+    <t>Laser intensity</t>
+  </si>
+  <si>
+    <t>DivAngle</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>Electron divergence angle</t>
   </si>
 </sst>
 </file>
@@ -261,7 +318,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +328,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,19 +439,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,6 +457,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,118 +788,118 @@
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="12">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="16">
-        <v>20</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -859,10 +909,10 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -873,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -888,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -899,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -914,7 +964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -925,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -940,7 +990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -951,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
@@ -963,13 +1013,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -980,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -993,250 +1040,260 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0.99969115500000005</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2500000000000000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3">
+        <v>70</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2.8000000000000001E-14</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="15">
+        <v>4E+20</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="14">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F19" s="15">
         <v>6.0339999999999998E-2</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F20" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H20" s="13" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
-        <v>332</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2.5770000000000001E-2</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1247,70 +1304,70 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3">
-        <v>318.5</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>44</v>
+      <c r="H22" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>1</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="11">
-        <v>1.7285900000000001</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="F23" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>46</v>
+      <c r="H23" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,23 +1375,23 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3">
-        <v>0.01</v>
+        <v>332</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1342,49 +1399,221 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="3">
+        <v>318.5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.7285900000000001</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79045516-B576-2942-893C-A51977FF599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FAC149-90AA-274F-A87D-C373553E6F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIONBeamLine-Params-LsrDrvn" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -457,9 +457,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,156 +1141,156 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>2.8000000000000001E-14</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>4E+20</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>1</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="5">
         <v>25</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="15">
-        <v>6.0339999999999998E-2</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19">
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1337,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
@@ -1533,7 +1531,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="3">
-        <v>1.7285900000000001</v>
+        <v>1.7286520000000001</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -1557,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="3">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>12</v>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA1811F-8743-8240-8FDC-D9DC5E653F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FAC149-90AA-274F-A87D-C373553E6F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIONBeamLine-Params-LsrDrvn" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,14 +331,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -353,7 +347,50 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -406,21 +443,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +775,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,28 +791,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -850,436 +887,436 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>0.99969115500000005</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>2500000000000000</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>70</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>0.8</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="13">
         <v>2.8000000000000001E-14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="13">
         <v>4E+20</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>25</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="1">
-        <v>6.0339999999999998E-2</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19">
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1297,8 +1334,8 @@
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="4">
-        <v>1E-3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
@@ -1321,7 +1358,7 @@
       <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.04</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -1332,52 +1369,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>332</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1395,7 +1432,7 @@
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>2.5770000000000001E-2</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -1419,7 +1456,7 @@
       <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>0.02</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1430,150 +1467,150 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>318.5</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>1</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="7">
-        <v>1.7285900000000001</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="3">
+        <v>1.7286520000000001</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <v>0.02</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="5" t="s">
         <v>49</v>
       </c>
     </row>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FAC149-90AA-274F-A87D-C373553E6F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131104B8-832F-EA48-BBFF-0927C112E4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23340" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIONBeamLine-Params-LsrDrvn" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>Parameter</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Electron divergence angle</t>
+  </si>
+  <si>
+    <t>SigmaThetaS0</t>
+  </si>
+  <si>
+    <t>SlopeThetaS</t>
+  </si>
+  <si>
+    <t>Intercept of dependence of RMS theta_S on KE</t>
+  </si>
+  <si>
+    <t>Scaled slope of dependence of RMS theta_S on KE</t>
   </si>
 </sst>
 </file>
@@ -332,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -435,11 +447,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -458,6 +479,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,9 +499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -516,7 +539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -622,7 +645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,28 +1242,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>25</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1249,49 +1272,51 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="14">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="15">
         <v>15</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>4.0340000000000001E-2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
+      <c r="G20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1302,22 +1327,20 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.5E-3</v>
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>4.0340000000000001E-2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1328,20 +1351,22 @@
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1352,20 +1377,22 @@
         <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F23" s="3">
-        <v>0.04</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1376,20 +1403,20 @@
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F24" s="3">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1400,22 +1427,20 @@
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,20 +1451,20 @@
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3">
-        <v>2.5770000000000001E-2</v>
+        <v>332</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1450,20 +1475,22 @@
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F27" s="3">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,46 +1501,44 @@
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F28" s="3">
-        <v>318.5</v>
+        <v>2.5770000000000001E-2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>43</v>
+      <c r="H29" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1521,47 +1546,49 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3">
-        <v>1.7286520000000001</v>
+        <v>318.5</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>46</v>
+      <c r="H31" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1572,45 +1599,93 @@
         <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F32" s="3">
-        <v>1.5E-3</v>
+        <v>1.7286520000000001</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F35" s="5">
         <v>0.02</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>49</v>
       </c>
     </row>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C5CCD-0C84-2642-8FB5-11199C4D2C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3CC31-4CA7-5447-8BF0-1F5DD1840EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23340" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>Parameter</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Aperture</t>
   </si>
   <si>
-    <t>Minimum of energy distribution</t>
-  </si>
-  <si>
     <t>Elliptical</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Final drift</t>
   </si>
   <si>
-    <t>Maximum of energy distribution</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -194,15 +188,6 @@
     <t>Mother volume radius</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Laser power</t>
-  </si>
-  <si>
     <t>Wavelength</t>
   </si>
   <si>
@@ -210,60 +195,6 @@
   </si>
   <si>
     <t>Laser wavelength</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Laser pulse duration</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>Target thickness</t>
-  </si>
-  <si>
-    <t>DivAngle</t>
-  </si>
-  <si>
-    <t>degrees</t>
-  </si>
-  <si>
-    <t>Electron divergence angle</t>
-  </si>
-  <si>
-    <t>SigmaThetaS0</t>
-  </si>
-  <si>
-    <t>SlopeThetaS</t>
-  </si>
-  <si>
-    <t>Intercept of dependence of RMS theta_S on KE</t>
-  </si>
-  <si>
-    <t>Scaled slope of dependence of RMS theta_S on KE</t>
-  </si>
-  <si>
-    <t>r0</t>
-  </si>
-  <si>
-    <t>Radius of laser spot</t>
-  </si>
-  <si>
-    <t>Te</t>
-  </si>
-  <si>
-    <t>Hot electron temperature</t>
-  </si>
-  <si>
-    <t>Kmin</t>
-  </si>
-  <si>
-    <t>Kmax</t>
   </si>
   <si>
     <t>rpmax</t>
@@ -390,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -407,7 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -772,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -794,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="9">
         <v>20</v>
@@ -818,16 +748,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6">
         <v>0.5</v>
@@ -848,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>8</v>
@@ -858,7 +788,7 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -872,327 +802,315 @@
         <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" s="11">
         <v>0.8</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>52</v>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="12">
-        <v>250000000000000</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="11" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1.5E-6</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>71</v>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2.8000000000000001E-14</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>60</v>
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>73</v>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>14</v>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="11">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>40</v>
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>62</v>
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1">
+        <v>332</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>318.5</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="11">
-        <v>20</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="11">
-        <v>15</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="13">
-        <v>-9999</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
-        <v>77</v>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>4.0340000000000001E-2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1200,25 +1118,23 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>3.0000000000000001E-3</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.7286520000000001</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1226,25 +1142,23 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1">
-        <v>1.5E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1252,293 +1166,49 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="1">
-        <v>332</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.5770000000000001E-2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="F22" s="2">
         <v>0.02</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1">
-        <v>318.5</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.7286520000000001</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3CC31-4CA7-5447-8BF0-1F5DD1840EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D9522-70E1-B747-918D-367EFD10D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23340" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Parameter</t>
   </si>
@@ -188,19 +188,10 @@
     <t>Mother volume radius</t>
   </si>
   <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>um</t>
-  </si>
-  <si>
-    <t>Laser wavelength</t>
-  </si>
-  <si>
-    <t>rpmax</t>
-  </si>
-  <si>
     <t>Max r prime</t>
+  </si>
+  <si>
+    <t>rpmax-dummy</t>
   </si>
 </sst>
 </file>
@@ -321,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -337,7 +328,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,40 +795,38 @@
         <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
-        <v>54</v>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4.0340000000000001E-2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -849,20 +837,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>4.0340000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -879,16 +869,16 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>3.0000000000000001E-3</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.5E-3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -899,22 +889,20 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -925,20 +913,20 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,16 +941,16 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>0.04</v>
+        <v>332</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -973,20 +961,22 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>332</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -997,22 +987,20 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5770000000000001E-2</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1023,20 +1011,20 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <v>2.5770000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1051,66 +1039,66 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>318.5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1">
-        <v>318.5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
+      <c r="F18" s="1">
+        <v>1.7286520000000001</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1128,13 +1116,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <v>1.7286520000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1145,69 +1133,45 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="F21" s="2">
         <v>0.02</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D9522-70E1-B747-918D-367EFD10D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9308E-6536-3646-9CBC-505CC45EB0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23340" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>Max r prime</t>
   </si>
   <si>
-    <t>rpmax-dummy</t>
+    <t>rpmax</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
+++ b/11-Parameters/LIONBeamLine-Params-LsrDrvn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D9522-70E1-B747-918D-367EFD10D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF62FE1-61CD-CC46-9921-D6BFD1999A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="23340" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>Max r prime</t>
   </si>
   <si>
-    <t>rpmax-dummy</t>
+    <t>rpmax</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>1.5E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
